--- a/Isaev/NewIsaev/NewCalls/EUMACE-AMPEA E3S HEU CL5 and CL4 Pre-selected calls for input.xlsx
+++ b/Isaev/NewIsaev/NewCalls/EUMACE-AMPEA E3S HEU CL5 and CL4 Pre-selected calls for input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepL\Isaev\NewIsaev\NewCalls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Samples\DeepL\Isaev\NewIsaev\NewCalls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8158AACC-0B9A-40BB-BC1D-13B8A1B99205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA83487-34DF-427B-9BA0-EE642CE14196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact information" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Call n°</t>
   </si>
@@ -161,13 +161,25 @@
   </si>
   <si>
     <t>Інноваційні інструменти та послуги для управління та розширення можливостей енергетичних спільнот</t>
+  </si>
+  <si>
+    <t>Oleh Olikh</t>
+  </si>
+  <si>
+    <t>Taras Shevchenko National University of Kyiv, Ukraine</t>
+  </si>
+  <si>
+    <t>olegolikh@knu.ua</t>
+  </si>
+  <si>
+    <t>YES, online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,10 +327,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,8 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -449,12 +472,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:D2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="affiliation"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="email "/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="email " dataCellStyle="Гіперпосилання"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Will you participate in AMPEA/E3S/EU-MACE discussion meeting? YES or NO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -737,21 +760,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="86.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="86.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -765,10 +788,27 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{51BEF8FC-A022-4277-AFD1-E38898D178C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -777,19 +817,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1"/>
-    <col min="2" max="2" width="76.44140625" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
-    <col min="4" max="4" width="60.21875" customWidth="1"/>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -814,7 +854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -823,7 +863,7 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,7 +872,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -841,7 +881,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -850,7 +890,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -859,7 +899,7 @@
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -867,7 +907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -875,7 +915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -883,7 +923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -891,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -899,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -908,62 +948,62 @@
       </c>
       <c r="C13" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>44</v>
       </c>
